--- a/Xml Bayi/Rigel Xml Bayi.xlsx
+++ b/Xml Bayi/Rigel Xml Bayi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ön" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="162">
   <si>
     <t>Firma</t>
   </si>
@@ -489,15 +489,127 @@
   <si>
     <t>bonjey.com</t>
   </si>
+  <si>
+    <t>Tayt</t>
+  </si>
+  <si>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>eşoftman</t>
+  </si>
+  <si>
+    <t>Hırka</t>
+  </si>
+  <si>
+    <t>Kazak</t>
+  </si>
+  <si>
+    <t>Tulum</t>
+  </si>
+  <si>
+    <t>Pantolon</t>
+  </si>
+  <si>
+    <t>T-sHırt</t>
+  </si>
+  <si>
+    <t>Tunik</t>
+  </si>
+  <si>
+    <t>tesettdür</t>
+  </si>
+  <si>
+    <t>Fileli</t>
+  </si>
+  <si>
+    <t>haydigiy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> twister</t>
+  </si>
+  <si>
+    <t>lafaba</t>
+  </si>
+  <si>
+    <t>erkek</t>
+  </si>
+  <si>
+    <t>pantolon</t>
+  </si>
+  <si>
+    <t>ceket</t>
+  </si>
+  <si>
+    <t>gömlek</t>
+  </si>
+  <si>
+    <t>kazak</t>
+  </si>
+  <si>
+    <t>mont</t>
+  </si>
+  <si>
+    <t>Yaz</t>
+  </si>
+  <si>
+    <t>kış</t>
+  </si>
+  <si>
+    <t>ana ürün</t>
+  </si>
+  <si>
+    <t>abiye</t>
+  </si>
+  <si>
+    <t>Ayakkabı</t>
+  </si>
+  <si>
+    <t>Aksesuar</t>
+  </si>
+  <si>
+    <t>pijama</t>
+  </si>
+  <si>
+    <t>çanta</t>
+  </si>
+  <si>
+    <t>iç giyim</t>
+  </si>
+  <si>
+    <t>Kışlık</t>
+  </si>
+  <si>
+    <t>Yazlık</t>
+  </si>
+  <si>
+    <t>AnaÜrün</t>
+  </si>
+  <si>
+    <t>Bayan</t>
+  </si>
+  <si>
+    <t>Erkek</t>
+  </si>
+  <si>
+    <t>Başarı Puan Oranı</t>
+  </si>
+  <si>
+    <t>Toplam Puanları</t>
+  </si>
+  <si>
+    <t>Toplam Puan Oranı</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₺&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,8 +678,35 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +767,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -924,7 +1117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -995,6 +1188,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,32 +1305,29 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1490,184 +1731,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51">
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41">
         <v>44071</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="51">
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="41">
         <f ca="1">TODAY()</f>
-        <v>44077</v>
-      </c>
-      <c r="O1" s="52"/>
+        <v>44078</v>
+      </c>
+      <c r="O1" s="42"/>
       <c r="P1" s="14" t="s">
         <v>45</v>
       </c>
       <c r="Q1" s="15">
         <f ca="1">N1-I1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="33" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="33" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="39">
+      <c r="F4" s="60">
         <f>'Xml Bayiler'!A1570</f>
         <v>51</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="39">
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="60">
         <f>'Xml Bayiler'!P1571</f>
         <v>45</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="39">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="60">
         <f>'Xml Bayiler'!P1572</f>
         <v>0</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="39">
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="60">
         <f>'Xml Bayiler'!P1570</f>
         <v>6</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
     </row>
     <row r="7" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="68"/>
     </row>
     <row r="8" spans="4:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
       <c r="Q11" s="16"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
@@ -1725,11 +1966,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F8:Q8"/>
     <mergeCell ref="H10:O11"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="F2:H3"/>
@@ -1740,6 +1976,11 @@
     <mergeCell ref="I4:K7"/>
     <mergeCell ref="L4:N7"/>
     <mergeCell ref="O4:Q7"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1751,10 +1992,10 @@
   <sheetPr codeName="Sayfa2" filterMode="1"/>
   <dimension ref="A1:AA1572"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2958,7 +3199,7 @@
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3000,14 +3241,984 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="37">
+        <f>C2+E2+F2/3</f>
+        <v>5</v>
+      </c>
+      <c r="T2" s="1">
+        <f>B2+G2+I2+J2/4</f>
+        <v>2.5</v>
+      </c>
+      <c r="U2" s="37">
+        <f>D2+H2+K2+L2+M2+N2+O2+P2+Q2+R2/10</f>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="37">
+        <f>C3+E3+F3/3</f>
+        <v>7</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T5" si="0">B3+G3+I3+J3/4</f>
+        <v>8.75</v>
+      </c>
+      <c r="U3" s="37">
+        <f t="shared" ref="U3:U5" si="1">D3+H3+K3+L3+M3+N3+O3+P3+Q3+R3/10</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="37">
+        <f>C4+E4+F4/3</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U4" s="37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="37">
+        <f>C5+E5+F5/3</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="U5" s="37">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C14" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="33">
+        <v>4</v>
+      </c>
+      <c r="D15" s="33">
+        <v>11</v>
+      </c>
+      <c r="E15" s="33">
+        <v>5</v>
+      </c>
+      <c r="F15" s="33">
+        <v>16</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="33">
+        <f>E8</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="33">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <f>E10</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="33">
+        <f>E11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="33">
+        <v>7</v>
+      </c>
+      <c r="D16" s="33">
+        <v>7</v>
+      </c>
+      <c r="E16" s="33">
+        <v>1</v>
+      </c>
+      <c r="F16" s="33">
+        <v>11</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="33">
+        <f>F8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="33">
+        <f>F9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="33">
+        <f>F10+G10</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="33">
+        <f>F11+G11</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="33">
+        <v>28</v>
+      </c>
+      <c r="D17" s="33">
+        <v>23</v>
+      </c>
+      <c r="E17" s="33">
+        <v>5</v>
+      </c>
+      <c r="F17" s="33">
+        <v>16</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="33">
+        <f>B8+C8+D8</f>
+        <v>5</v>
+      </c>
+      <c r="I17" s="33">
+        <f>B9+C9+D9</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="33">
+        <f>B10+C10+D10</f>
+        <v>10</v>
+      </c>
+      <c r="K17" s="33">
+        <f>B11+C11+D11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="71"/>
+      <c r="H18" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="76"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2.5</v>
+      </c>
+      <c r="E20">
+        <v>24.4</v>
+      </c>
+      <c r="F20" s="70">
+        <v>39</v>
+      </c>
+      <c r="G20" s="70"/>
+      <c r="H20" s="69">
+        <f>F20/17</f>
+        <v>2.2941176470588234</v>
+      </c>
+      <c r="I20" s="69"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>8.75</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="F21" s="70">
+        <v>41</v>
+      </c>
+      <c r="G21" s="70"/>
+      <c r="H21" s="69">
+        <f t="shared" ref="H21:H23" si="2">F21/17</f>
+        <v>2.4117647058823528</v>
+      </c>
+      <c r="I21" s="69"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" s="70">
+        <v>11</v>
+      </c>
+      <c r="G22" s="70"/>
+      <c r="H22" s="69">
+        <f t="shared" si="2"/>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="I22" s="69"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23" s="70">
+        <v>43</v>
+      </c>
+      <c r="G23" s="70"/>
+      <c r="H23" s="69">
+        <f t="shared" si="2"/>
+        <v>2.5294117647058822</v>
+      </c>
+      <c r="I23" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B8:G12">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{948FB84E-811D-4BAB-8ED5-E3041F823BED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EA876584-A623-4CE7-8940-57A4A77B63B0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82923C2F-F91C-43D8-9729-8EF35C6A29E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:K15">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EFFAD57B-F1F5-4149-9D38-7DD386FFE328}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:K16">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{01FF6875-94FD-4040-BAD9-E2FF5FF69D3C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:K17">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9CF6D787-4AD1-45BC-AF8A-C93700B6751B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:R5">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:G23">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{948FB84E-811D-4BAB-8ED5-E3041F823BED}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C15:F15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EA876584-A623-4CE7-8940-57A4A77B63B0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C16:F16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82923C2F-F91C-43D8-9729-8EF35C6A29E2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:F17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EFFAD57B-F1F5-4149-9D38-7DD386FFE328}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H15:K15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{01FF6875-94FD-4040-BAD9-E2FF5FF69D3C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H16:K16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9CF6D787-4AD1-45BC-AF8A-C93700B6751B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H17:K17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{42DC5486-95DF-4D3B-B8FD-A1C99BF0C76E}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H20:I23</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Xml Bayi/Rigel Xml Bayi.xlsx
+++ b/Xml Bayi/Rigel Xml Bayi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ön" sheetId="3" r:id="rId1"/>
@@ -1212,6 +1212,72 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,95 +1305,29 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1731,25 +1731,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41">
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63">
         <v>44071</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="41">
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="63">
         <f ca="1">TODAY()</f>
         <v>44078</v>
       </c>
-      <c r="O1" s="42"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="14" t="s">
         <v>45</v>
       </c>
@@ -1759,156 +1759,156 @@
       </c>
     </row>
     <row r="2" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="54" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="54" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="60">
+      <c r="F4" s="51">
         <f>'Xml Bayiler'!A1570</f>
         <v>51</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="60">
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="51">
         <f>'Xml Bayiler'!P1571</f>
         <v>45</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="60">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="51">
         <f>'Xml Bayiler'!P1572</f>
         <v>0</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="60">
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="51">
         <f>'Xml Bayiler'!P1570</f>
         <v>6</v>
       </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="65"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
     </row>
     <row r="7" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="68"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="59"/>
     </row>
     <row r="8" spans="4:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
       <c r="Q11" s="16"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
@@ -1966,6 +1966,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F8:Q8"/>
     <mergeCell ref="H10:O11"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="F2:H3"/>
@@ -1976,11 +1981,6 @@
     <mergeCell ref="I4:K7"/>
     <mergeCell ref="L4:N7"/>
     <mergeCell ref="O4:Q7"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3199,7 +3199,7 @@
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3243,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3593,19 +3593,19 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
@@ -3747,19 +3747,19 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
     </row>
     <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
@@ -3867,19 +3867,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="71" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="76" t="s">
+      <c r="G18" s="69"/>
+      <c r="H18" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="32" t="s">
@@ -3891,10 +3891,10 @@
       <c r="E19" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -3909,15 +3909,15 @@
       <c r="E20">
         <v>24.4</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="76">
         <v>39</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="69">
+      <c r="G20" s="76"/>
+      <c r="H20" s="75">
         <f>F20/17</f>
         <v>2.2941176470588234</v>
       </c>
-      <c r="I20" s="69"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -3932,15 +3932,15 @@
       <c r="E21">
         <v>23</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="76">
         <v>41</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="69">
+      <c r="G21" s="76"/>
+      <c r="H21" s="75">
         <f t="shared" ref="H21:H23" si="2">F21/17</f>
         <v>2.4117647058823528</v>
       </c>
-      <c r="I21" s="69"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -3955,15 +3955,15 @@
       <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="76">
         <v>11</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="69">
+      <c r="G22" s="76"/>
+      <c r="H22" s="75">
         <f t="shared" si="2"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="I22" s="69"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -3978,24 +3978,18 @@
       <c r="E23">
         <v>16</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="76">
         <v>43</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="69">
+      <c r="G23" s="76"/>
+      <c r="H23" s="75">
         <f t="shared" si="2"/>
         <v>2.5294117647058822</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H18:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
@@ -4004,6 +3998,12 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:I19"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:G12">
     <cfRule type="iconSet" priority="9">

--- a/Xml Bayi/Rigel Xml Bayi.xlsx
+++ b/Xml Bayi/Rigel Xml Bayi.xlsx
@@ -1212,6 +1212,33 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1278,31 +1305,10 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1322,12 +1328,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1731,25 +1731,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63">
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41">
         <v>44071</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="65" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="63">
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="41">
         <f ca="1">TODAY()</f>
         <v>44078</v>
       </c>
-      <c r="O1" s="64"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="14" t="s">
         <v>45</v>
       </c>
@@ -1759,156 +1759,156 @@
       </c>
     </row>
     <row r="2" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="45" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="51">
+      <c r="F4" s="60">
         <f>'Xml Bayiler'!A1570</f>
         <v>51</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="51">
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="60">
         <f>'Xml Bayiler'!P1571</f>
         <v>45</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="51">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="60">
         <f>'Xml Bayiler'!P1572</f>
         <v>0</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="51">
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="60">
         <f>'Xml Bayiler'!P1570</f>
         <v>6</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="56"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
     </row>
     <row r="7" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="59"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="68"/>
     </row>
     <row r="8" spans="4:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="40"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
       <c r="Q11" s="16"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
@@ -1966,11 +1966,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F8:Q8"/>
     <mergeCell ref="H10:O11"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="F2:H3"/>
@@ -1981,6 +1976,11 @@
     <mergeCell ref="I4:K7"/>
     <mergeCell ref="L4:N7"/>
     <mergeCell ref="O4:Q7"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3593,19 +3593,19 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
@@ -3747,19 +3747,19 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
@@ -3867,19 +3867,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="69" t="s">
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="74" t="s">
+      <c r="G18" s="71"/>
+      <c r="H18" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="32" t="s">
@@ -3891,10 +3891,10 @@
       <c r="E19" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -3909,15 +3909,15 @@
       <c r="E20">
         <v>24.4</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="70">
         <v>39</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="75">
+      <c r="G20" s="70"/>
+      <c r="H20" s="69">
         <f>F20/17</f>
         <v>2.2941176470588234</v>
       </c>
-      <c r="I20" s="75"/>
+      <c r="I20" s="69"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -3932,15 +3932,15 @@
       <c r="E21">
         <v>23</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="70">
         <v>41</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="75">
+      <c r="G21" s="70"/>
+      <c r="H21" s="69">
         <f t="shared" ref="H21:H23" si="2">F21/17</f>
         <v>2.4117647058823528</v>
       </c>
-      <c r="I21" s="75"/>
+      <c r="I21" s="69"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -3955,15 +3955,15 @@
       <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="70">
         <v>11</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="75">
+      <c r="G22" s="70"/>
+      <c r="H22" s="69">
         <f t="shared" si="2"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="I22" s="75"/>
+      <c r="I22" s="69"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -3978,18 +3978,24 @@
       <c r="E23">
         <v>16</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="70">
         <v>43</v>
       </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="75">
+      <c r="G23" s="70"/>
+      <c r="H23" s="69">
         <f t="shared" si="2"/>
         <v>2.5294117647058822</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
@@ -3998,12 +4004,6 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H18:I19"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:G12">
     <cfRule type="iconSet" priority="9">

--- a/Xml Bayi/Rigel Xml Bayi.xlsx
+++ b/Xml Bayi/Rigel Xml Bayi.xlsx
@@ -1212,6 +1212,72 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,95 +1305,29 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1731,184 +1731,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41">
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63">
         <v>44071</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="41">
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="63">
         <f ca="1">TODAY()</f>
-        <v>44078</v>
-      </c>
-      <c r="O1" s="42"/>
+        <v>44084</v>
+      </c>
+      <c r="O1" s="64"/>
       <c r="P1" s="14" t="s">
         <v>45</v>
       </c>
       <c r="Q1" s="15">
         <f ca="1">N1-I1</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="54" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="54" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="60">
+      <c r="F4" s="51">
         <f>'Xml Bayiler'!A1570</f>
         <v>51</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="60">
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="51">
         <f>'Xml Bayiler'!P1571</f>
         <v>45</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="60">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="51">
         <f>'Xml Bayiler'!P1572</f>
         <v>0</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="60">
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="51">
         <f>'Xml Bayiler'!P1570</f>
         <v>6</v>
       </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="65"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
     </row>
     <row r="7" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="68"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="59"/>
     </row>
     <row r="8" spans="4:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
       <c r="Q11" s="16"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
@@ -1966,6 +1966,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F8:Q8"/>
     <mergeCell ref="H10:O11"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="F2:H3"/>
@@ -1976,11 +1981,6 @@
     <mergeCell ref="I4:K7"/>
     <mergeCell ref="L4:N7"/>
     <mergeCell ref="O4:Q7"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1989,13 +1989,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sayfa2" filterMode="1"/>
+  <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:AA1572"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2068,7 +2068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>59</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>57</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>52</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>50</v>
       </c>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="Q15" s="24"/>
     </row>
-    <row r="16" spans="1:27" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>85</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>91</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>95</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>113</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>115</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>116</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>117</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>122</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>124</v>
       </c>
@@ -3106,13 +3106,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P52">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="Kontrol"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P52"/>
   <conditionalFormatting sqref="P2:P126">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Tercih"</formula>
@@ -3244,7 +3238,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3593,19 +3587,19 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
@@ -3747,19 +3741,19 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
     </row>
     <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
@@ -3867,19 +3861,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="71" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="76" t="s">
+      <c r="G18" s="69"/>
+      <c r="H18" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="32" t="s">
@@ -3891,10 +3885,10 @@
       <c r="E19" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -3909,15 +3903,15 @@
       <c r="E20">
         <v>24.4</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="76">
         <v>39</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="69">
+      <c r="G20" s="76"/>
+      <c r="H20" s="75">
         <f>F20/17</f>
         <v>2.2941176470588234</v>
       </c>
-      <c r="I20" s="69"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -3932,15 +3926,15 @@
       <c r="E21">
         <v>23</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="76">
         <v>41</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="69">
+      <c r="G21" s="76"/>
+      <c r="H21" s="75">
         <f t="shared" ref="H21:H23" si="2">F21/17</f>
         <v>2.4117647058823528</v>
       </c>
-      <c r="I21" s="69"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -3955,15 +3949,15 @@
       <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="76">
         <v>11</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="69">
+      <c r="G22" s="76"/>
+      <c r="H22" s="75">
         <f t="shared" si="2"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="I22" s="69"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -3978,24 +3972,18 @@
       <c r="E23">
         <v>16</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="76">
         <v>43</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="69">
+      <c r="G23" s="76"/>
+      <c r="H23" s="75">
         <f t="shared" si="2"/>
         <v>2.5294117647058822</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H18:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
@@ -4004,6 +3992,12 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:I19"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:G12">
     <cfRule type="iconSet" priority="9">

--- a/Xml Bayi/Rigel Xml Bayi.xlsx
+++ b/Xml Bayi/Rigel Xml Bayi.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Ön" sheetId="3" r:id="rId1"/>
-    <sheet name="Xml Bayiler" sheetId="1" r:id="rId2"/>
-    <sheet name="giyiimxmlbayisözleşme" sheetId="2" r:id="rId3"/>
-    <sheet name="Fileli" sheetId="6" r:id="rId4"/>
-    <sheet name="Nelerneler" sheetId="7" r:id="rId5"/>
-    <sheet name="Sayfa4" sheetId="10" r:id="rId6"/>
+    <sheet name="Firma Kurulum Bilgileri" sheetId="11" r:id="rId1"/>
+    <sheet name="Ön" sheetId="3" r:id="rId2"/>
+    <sheet name="Xml Bayiler" sheetId="1" r:id="rId3"/>
+    <sheet name="giyiimxmlbayisözleşme" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Fileli" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Nelerneler" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="ürün analiz" sheetId="10" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Xml Bayiler'!$A$1:$P$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Xml Bayiler'!$A$1:$P$52</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="197">
   <si>
     <t>Firma</t>
   </si>
@@ -600,6 +601,111 @@
   <si>
     <t>Toplam Puan Oranı</t>
   </si>
+  <si>
+    <t>TARİH</t>
+  </si>
+  <si>
+    <t>KİŞİ</t>
+  </si>
+  <si>
+    <t>İBAN GÖNDEREN</t>
+  </si>
+  <si>
+    <t>İBAN ALICI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AÇIKLAMA </t>
+  </si>
+  <si>
+    <t>TUTAR</t>
+  </si>
+  <si>
+    <t>SERMAYE</t>
+  </si>
+  <si>
+    <t>ACIKLAMA</t>
+  </si>
+  <si>
+    <t>KURUM</t>
+  </si>
+  <si>
+    <t>AÇIKLAMA</t>
+  </si>
+  <si>
+    <t>KURULUM GİDERLERİ</t>
+  </si>
+  <si>
+    <t>AYLIK GİDER</t>
+  </si>
+  <si>
+    <t>TUGAY GÜLER</t>
+  </si>
+  <si>
+    <t>HARUN IRKIÇATAL</t>
+  </si>
+  <si>
+    <t>UTKU DOĞANGÜZEL</t>
+  </si>
+  <si>
+    <t>TR000000000000000000000000</t>
+  </si>
+  <si>
+    <t>MÜKELLEF.CO</t>
+  </si>
+  <si>
+    <t>SANAL OFFİCE</t>
+  </si>
+  <si>
+    <t>TİCARET ODASI KAYIT</t>
+  </si>
+  <si>
+    <t>İMZA BAYANNAMESİ</t>
+  </si>
+  <si>
+    <t>XML BAYİLİK</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>NOTER</t>
+  </si>
+  <si>
+    <t>LAFABA</t>
+  </si>
+  <si>
+    <t>MUHASEBE</t>
+  </si>
+  <si>
+    <t>SGK</t>
+  </si>
+  <si>
+    <t>GOOGLE</t>
+  </si>
+  <si>
+    <t>NE SATILIR</t>
+  </si>
+  <si>
+    <t>OFFİCE</t>
+  </si>
+  <si>
+    <t>BAĞKUR</t>
+  </si>
+  <si>
+    <t>REKLAM</t>
+  </si>
+  <si>
+    <t>ENTEGRASYON</t>
+  </si>
+  <si>
+    <t>SERMAYE TOPLAM</t>
+  </si>
+  <si>
+    <t>GİDER TOPLAM</t>
+  </si>
+  <si>
+    <t>KALAN BAKİYE</t>
+  </si>
 </sst>
 </file>
 
@@ -609,7 +715,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₺&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,8 +811,44 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,8 +963,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1112,12 +1284,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1212,6 +1635,33 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1278,31 +1728,10 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1323,11 +1752,90 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1406,6 +1914,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFFFFCC"/>
+      <color rgb="FF339933"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1703,6 +2212,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="105"/>
+      <c r="F1" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="94"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="111"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="88"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="113"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="101">
+        <f>F46</f>
+        <v>10050</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="101">
+        <f>J46+N46</f>
+        <v>5650</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="108">
+        <f>D3-F3</f>
+        <v>4400</v>
+      </c>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="113"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="114"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+    </row>
+    <row r="6" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="121" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="121" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="121" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="121" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="N7" s="121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="77">
+        <v>44095</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="79">
+        <v>3350</v>
+      </c>
+      <c r="G8" s="80">
+        <v>44095</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="84">
+        <v>360</v>
+      </c>
+      <c r="K8" s="85">
+        <v>44095</v>
+      </c>
+      <c r="L8" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" s="86">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="77">
+        <v>44095</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="79">
+        <v>3350</v>
+      </c>
+      <c r="G9" s="80">
+        <v>44095</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="84">
+        <v>130</v>
+      </c>
+      <c r="K9" s="85">
+        <v>44095</v>
+      </c>
+      <c r="L9" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" s="86">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="77">
+        <v>44095</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="79">
+        <v>3350</v>
+      </c>
+      <c r="G10" s="80">
+        <v>44095</v>
+      </c>
+      <c r="H10" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="84">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="85">
+        <v>44095</v>
+      </c>
+      <c r="L10" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="N10" s="86">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80">
+        <v>44095</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="84">
+        <v>60</v>
+      </c>
+      <c r="K11" s="85">
+        <v>44095</v>
+      </c>
+      <c r="L11" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" s="86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80">
+        <v>44095</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="84">
+        <v>2000</v>
+      </c>
+      <c r="K12" s="85">
+        <v>44095</v>
+      </c>
+      <c r="L12" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="N12" s="86">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="86"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="86"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="86"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="86"/>
+    </row>
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="86"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="86"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="86"/>
+    </row>
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="86"/>
+    </row>
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="86"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="86"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="86"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="86"/>
+    </row>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="86"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="86"/>
+    </row>
+    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="86"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="86"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="86"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="86"/>
+    </row>
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="86"/>
+    </row>
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="86"/>
+    </row>
+    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="86"/>
+    </row>
+    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="86"/>
+    </row>
+    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="86"/>
+    </row>
+    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="86"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="86"/>
+    </row>
+    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="86"/>
+    </row>
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="86"/>
+    </row>
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="78"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="86"/>
+    </row>
+    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="86"/>
+    </row>
+    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="78"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="86"/>
+    </row>
+    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="78"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="86"/>
+    </row>
+    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="78"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="86"/>
+    </row>
+    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="78"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="86"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F46" s="87">
+        <f>SUM(F8:F45)</f>
+        <v>10050</v>
+      </c>
+      <c r="J46" s="87">
+        <f>SUM(J8:J45)</f>
+        <v>4050</v>
+      </c>
+      <c r="N46" s="87">
+        <f>SUM(N8:N45)</f>
+        <v>1600</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="F3:H5"/>
+    <mergeCell ref="I3:K5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:K5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="D1:S15"/>
   <sheetViews>
@@ -1731,184 +3190,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63">
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41">
         <v>44071</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="65" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="63">
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="41">
         <f ca="1">TODAY()</f>
-        <v>44084</v>
-      </c>
-      <c r="O1" s="64"/>
+        <v>44095</v>
+      </c>
+      <c r="O1" s="42"/>
       <c r="P1" s="14" t="s">
         <v>45</v>
       </c>
       <c r="Q1" s="15">
         <f ca="1">N1-I1</f>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="45" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="51">
+      <c r="F4" s="60">
         <f>'Xml Bayiler'!A1570</f>
         <v>51</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="51">
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="60">
         <f>'Xml Bayiler'!P1571</f>
         <v>45</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="51">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="60">
         <f>'Xml Bayiler'!P1572</f>
         <v>0</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="51">
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="60">
         <f>'Xml Bayiler'!P1570</f>
         <v>6</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="56"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
     </row>
     <row r="7" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="59"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="68"/>
     </row>
     <row r="8" spans="4:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="40"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
       <c r="Q11" s="16"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
@@ -1966,11 +3425,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F8:Q8"/>
     <mergeCell ref="H10:O11"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="F2:H3"/>
@@ -1981,13 +3435,18 @@
     <mergeCell ref="I4:K7"/>
     <mergeCell ref="L4:N7"/>
     <mergeCell ref="O4:Q7"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:AA1572"/>
@@ -3166,7 +4625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1"/>
@@ -3188,7 +4647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1"/>
@@ -3211,7 +4670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1"/>
@@ -3233,12 +4692,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3587,19 +5046,19 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
@@ -3741,19 +5200,19 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
@@ -3861,19 +5320,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="69" t="s">
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="74" t="s">
+      <c r="G18" s="71"/>
+      <c r="H18" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="32" t="s">
@@ -3885,10 +5344,10 @@
       <c r="E19" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -3903,15 +5362,15 @@
       <c r="E20">
         <v>24.4</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="70">
         <v>39</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="75">
+      <c r="G20" s="70"/>
+      <c r="H20" s="69">
         <f>F20/17</f>
         <v>2.2941176470588234</v>
       </c>
-      <c r="I20" s="75"/>
+      <c r="I20" s="69"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -3926,15 +5385,15 @@
       <c r="E21">
         <v>23</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="70">
         <v>41</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="75">
+      <c r="G21" s="70"/>
+      <c r="H21" s="69">
         <f t="shared" ref="H21:H23" si="2">F21/17</f>
         <v>2.4117647058823528</v>
       </c>
-      <c r="I21" s="75"/>
+      <c r="I21" s="69"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -3949,15 +5408,15 @@
       <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="70">
         <v>11</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="75">
+      <c r="G22" s="70"/>
+      <c r="H22" s="69">
         <f t="shared" si="2"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="I22" s="75"/>
+      <c r="I22" s="69"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -3972,18 +5431,24 @@
       <c r="E23">
         <v>16</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="70">
         <v>43</v>
       </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="75">
+      <c r="G23" s="70"/>
+      <c r="H23" s="69">
         <f t="shared" si="2"/>
         <v>2.5294117647058822</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
@@ -3992,12 +5457,6 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H18:I19"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:G12">
     <cfRule type="iconSet" priority="9">

--- a/Xml Bayi/Rigel Xml Bayi.xlsx
+++ b/Xml Bayi/Rigel Xml Bayi.xlsx
@@ -13,7 +13,7 @@
     <sheet name="giyiimxmlbayisözleşme" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Fileli" sheetId="6" state="hidden" r:id="rId5"/>
     <sheet name="Nelerneler" sheetId="7" state="hidden" r:id="rId6"/>
-    <sheet name="ürün analiz" sheetId="10" state="hidden" r:id="rId7"/>
+    <sheet name="ürün analiz" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Xml Bayiler'!$A$1:$P$52</definedName>
@@ -715,7 +715,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₺&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,6 +841,15 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -994,7 +1003,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1306,28 +1315,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1361,19 +1348,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1535,12 +1509,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1635,206 +1721,238 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2215,14 +2333,14 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -2235,902 +2353,902 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="104" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="96" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="104" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="111"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="88"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="113"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="101">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="80">
         <f>F46</f>
         <v>10050</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="101">
+      <c r="E3" s="81"/>
+      <c r="F3" s="86">
         <f>J46+N46</f>
-        <v>5650</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="108">
+        <v>5630</v>
+      </c>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="86">
         <f>D3-F3</f>
-        <v>4400</v>
-      </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="113"/>
+        <v>4420</v>
+      </c>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="114"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="83" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83" t="s">
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="121" t="s">
+      <c r="H7" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="J7" s="121" t="s">
+      <c r="J7" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="121" t="s">
+      <c r="K7" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="L7" s="121" t="s">
+      <c r="L7" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="121" t="s">
+      <c r="N7" s="62" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="77">
+      <c r="A8" s="38">
         <v>44095</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="40">
         <v>3350</v>
       </c>
-      <c r="G8" s="80">
+      <c r="G8" s="41">
         <v>44095</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="44">
         <v>360</v>
       </c>
-      <c r="K8" s="85">
+      <c r="K8" s="45">
         <v>44095</v>
       </c>
-      <c r="L8" s="82" t="s">
+      <c r="L8" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="M8" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="N8" s="86">
+      <c r="N8" s="46">
         <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="77">
+      <c r="A9" s="38">
         <v>44095</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="40">
         <v>3350</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="41">
         <v>44095</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="44">
         <v>130</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="45">
         <v>44095</v>
       </c>
-      <c r="L9" s="82" t="s">
+      <c r="L9" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="M9" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="N9" s="86">
+      <c r="N9" s="46">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="77">
+      <c r="A10" s="38">
         <v>44095</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="40">
         <v>3350</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="41">
         <v>44095</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="44">
         <v>1500</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="45">
         <v>44095</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="82" t="s">
+      <c r="M10" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="N10" s="86">
-        <v>870</v>
+      <c r="N10" s="46">
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41">
         <v>44095</v>
       </c>
-      <c r="H11" s="81" t="s">
+      <c r="H11" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I11" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="44">
         <v>60</v>
       </c>
-      <c r="K11" s="85">
+      <c r="K11" s="45">
         <v>44095</v>
       </c>
-      <c r="L11" s="82" t="s">
+      <c r="L11" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M11" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="86">
+      <c r="N11" s="46">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41">
         <v>44095</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="44">
         <v>2000</v>
       </c>
-      <c r="K12" s="85">
+      <c r="K12" s="45">
         <v>44095</v>
       </c>
-      <c r="L12" s="82" t="s">
+      <c r="L12" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="N12" s="86">
+      <c r="N12" s="46">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="86"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="46"/>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="86"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="86"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="86"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="86"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="46"/>
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="86"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="86"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="46"/>
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="86"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="46"/>
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="86"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="86"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="46"/>
     </row>
     <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="86"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="86"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="46"/>
     </row>
     <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="86"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="86"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="46"/>
     </row>
     <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="86"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="46"/>
     </row>
     <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="86"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="46"/>
     </row>
     <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="86"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="46"/>
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="86"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="46"/>
     </row>
     <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="86"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="46"/>
     </row>
     <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="86"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="46"/>
     </row>
     <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="86"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="46"/>
     </row>
     <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="86"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="46"/>
     </row>
     <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="86"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="46"/>
     </row>
     <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="86"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="86"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="46"/>
     </row>
     <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="86"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="46"/>
     </row>
     <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="86"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="46"/>
     </row>
     <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="86"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="46"/>
     </row>
     <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="86"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="46"/>
     </row>
     <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="86"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="46"/>
     </row>
     <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="86"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="46"/>
     </row>
     <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="86"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="86"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="46"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F46" s="87">
+      <c r="F46" s="47">
         <f>SUM(F8:F45)</f>
         <v>10050</v>
       </c>
-      <c r="J46" s="87">
+      <c r="J46" s="47">
         <f>SUM(J8:J45)</f>
         <v>4050</v>
       </c>
-      <c r="N46" s="87">
+      <c r="N46" s="47">
         <f>SUM(N8:N45)</f>
-        <v>1600</v>
+        <v>1580</v>
       </c>
     </row>
   </sheetData>
@@ -3190,184 +3308,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41">
+      <c r="G1" s="94"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96">
         <v>44071</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="97"/>
+      <c r="K1" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="41">
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="96">
         <f ca="1">TODAY()</f>
-        <v>44095</v>
-      </c>
-      <c r="O1" s="42"/>
+        <v>44097</v>
+      </c>
+      <c r="O1" s="97"/>
       <c r="P1" s="14" t="s">
         <v>45</v>
       </c>
       <c r="Q1" s="15">
         <f ca="1">N1-I1</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="54" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54" t="s">
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="54" t="s">
+      <c r="M2" s="110"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="114"/>
     </row>
     <row r="4" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="60">
+      <c r="F4" s="115">
         <f>'Xml Bayiler'!A1570</f>
         <v>51</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="60">
+      <c r="G4" s="116"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="115">
         <f>'Xml Bayiler'!P1571</f>
         <v>45</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="60">
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="115">
         <f>'Xml Bayiler'!P1572</f>
         <v>0</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="60">
+      <c r="M4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="115">
         <f>'Xml Bayiler'!P1570</f>
         <v>6</v>
       </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="117"/>
     </row>
     <row r="5" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="120"/>
     </row>
     <row r="6" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="65"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="120"/>
     </row>
     <row r="7" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="68"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="123"/>
     </row>
     <row r="8" spans="4:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="104"/>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="107"/>
       <c r="Q11" s="16"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
@@ -3451,10 +3569,10 @@
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:AA1572"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4697,7 +4815,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5046,19 +5164,19 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
@@ -5200,19 +5318,19 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
     </row>
     <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
@@ -5320,19 +5438,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="71" t="s">
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="76" t="s">
+      <c r="G18" s="126"/>
+      <c r="H18" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="131"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="32" t="s">
@@ -5344,10 +5462,10 @@
       <c r="E19" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -5362,15 +5480,15 @@
       <c r="E20">
         <v>24.4</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="125">
         <v>39</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="69">
+      <c r="G20" s="125"/>
+      <c r="H20" s="124">
         <f>F20/17</f>
         <v>2.2941176470588234</v>
       </c>
-      <c r="I20" s="69"/>
+      <c r="I20" s="124"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -5385,15 +5503,15 @@
       <c r="E21">
         <v>23</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="125">
         <v>41</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="69">
+      <c r="G21" s="125"/>
+      <c r="H21" s="124">
         <f t="shared" ref="H21:H23" si="2">F21/17</f>
         <v>2.4117647058823528</v>
       </c>
-      <c r="I21" s="69"/>
+      <c r="I21" s="124"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -5408,15 +5526,15 @@
       <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="125">
         <v>11</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="69">
+      <c r="G22" s="125"/>
+      <c r="H22" s="124">
         <f t="shared" si="2"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="I22" s="69"/>
+      <c r="I22" s="124"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -5431,15 +5549,15 @@
       <c r="E23">
         <v>16</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="125">
         <v>43</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="69">
+      <c r="G23" s="125"/>
+      <c r="H23" s="124">
         <f t="shared" si="2"/>
         <v>2.5294117647058822</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Xml Bayi/Rigel Xml Bayi.xlsx
+++ b/Xml Bayi/Rigel Xml Bayi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Firma Kurulum Bilgileri" sheetId="11" r:id="rId1"/>
@@ -1838,6 +1838,72 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1865,95 +1931,29 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2332,7 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -3308,184 +3308,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96">
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118">
         <v>44071</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98" t="s">
+      <c r="J1" s="119"/>
+      <c r="K1" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="96">
+      <c r="L1" s="121"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="118">
         <f ca="1">TODAY()</f>
-        <v>44097</v>
-      </c>
-      <c r="O1" s="97"/>
+        <v>44098</v>
+      </c>
+      <c r="O1" s="119"/>
       <c r="P1" s="14" t="s">
         <v>45</v>
       </c>
       <c r="Q1" s="15">
         <f ca="1">N1-I1</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="109" t="s">
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="109" t="s">
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="109" t="s">
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="111"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="112"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="114"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105"/>
     </row>
     <row r="4" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="115">
+      <c r="F4" s="106">
         <f>'Xml Bayiler'!A1570</f>
         <v>51</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="115">
+      <c r="G4" s="107"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="106">
         <f>'Xml Bayiler'!P1571</f>
         <v>45</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="115">
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="106">
         <f>'Xml Bayiler'!P1572</f>
         <v>0</v>
       </c>
-      <c r="M4" s="116"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="115">
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="106">
         <f>'Xml Bayiler'!P1570</f>
         <v>6</v>
       </c>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="117"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="108"/>
     </row>
     <row r="5" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="118"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="120"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="111"/>
     </row>
     <row r="6" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="120"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="111"/>
     </row>
     <row r="7" spans="4:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="123"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="114"/>
     </row>
     <row r="8" spans="4:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="108" t="s">
+      <c r="H9" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="102"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="104"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="95"/>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="H11" s="105"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="107"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="98"/>
       <c r="Q11" s="16"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
@@ -3543,6 +3543,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F8:Q8"/>
     <mergeCell ref="H10:O11"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="F2:H3"/>
@@ -3553,11 +3558,6 @@
     <mergeCell ref="I4:K7"/>
     <mergeCell ref="L4:N7"/>
     <mergeCell ref="O4:Q7"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4814,8 +4814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5164,19 +5164,19 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
@@ -5318,19 +5318,19 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="129" t="s">
+      <c r="H14" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
     </row>
     <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
@@ -5438,19 +5438,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="126" t="s">
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="126"/>
-      <c r="H18" s="131" t="s">
+      <c r="G18" s="124"/>
+      <c r="H18" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="131"/>
+      <c r="I18" s="129"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="32" t="s">
@@ -5462,10 +5462,10 @@
       <c r="E19" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -5480,15 +5480,15 @@
       <c r="E20">
         <v>24.4</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="131">
         <v>39</v>
       </c>
-      <c r="G20" s="125"/>
-      <c r="H20" s="124">
+      <c r="G20" s="131"/>
+      <c r="H20" s="130">
         <f>F20/17</f>
         <v>2.2941176470588234</v>
       </c>
-      <c r="I20" s="124"/>
+      <c r="I20" s="130"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -5503,15 +5503,15 @@
       <c r="E21">
         <v>23</v>
       </c>
-      <c r="F21" s="125">
+      <c r="F21" s="131">
         <v>41</v>
       </c>
-      <c r="G21" s="125"/>
-      <c r="H21" s="124">
+      <c r="G21" s="131"/>
+      <c r="H21" s="130">
         <f t="shared" ref="H21:H23" si="2">F21/17</f>
         <v>2.4117647058823528</v>
       </c>
-      <c r="I21" s="124"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -5526,15 +5526,15 @@
       <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="125">
+      <c r="F22" s="131">
         <v>11</v>
       </c>
-      <c r="G22" s="125"/>
-      <c r="H22" s="124">
+      <c r="G22" s="131"/>
+      <c r="H22" s="130">
         <f t="shared" si="2"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="I22" s="124"/>
+      <c r="I22" s="130"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -5549,24 +5549,18 @@
       <c r="E23">
         <v>16</v>
       </c>
-      <c r="F23" s="125">
+      <c r="F23" s="131">
         <v>43</v>
       </c>
-      <c r="G23" s="125"/>
-      <c r="H23" s="124">
+      <c r="G23" s="131"/>
+      <c r="H23" s="130">
         <f t="shared" si="2"/>
         <v>2.5294117647058822</v>
       </c>
-      <c r="I23" s="124"/>
+      <c r="I23" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H18:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
@@ -5575,6 +5569,12 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:I19"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:G12">
     <cfRule type="iconSet" priority="9">
